--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>1304.849549628125</v>
+        <v>9743.48105589252</v>
       </c>
       <c r="R2">
-        <v>1304.849549628125</v>
+        <v>87691.32950303268</v>
       </c>
       <c r="S2">
-        <v>0.001960568949171156</v>
+        <v>0.008691102872631357</v>
       </c>
       <c r="T2">
-        <v>0.001960568949171156</v>
+        <v>0.008691102872631357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>2980.665197479439</v>
+        <v>4770.236198789196</v>
       </c>
       <c r="R3">
-        <v>2980.665197479439</v>
+        <v>42932.12578910277</v>
       </c>
       <c r="S3">
-        <v>0.004478523700850222</v>
+        <v>0.004255010431344159</v>
       </c>
       <c r="T3">
-        <v>0.004478523700850222</v>
+        <v>0.004255010431344159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>3523.34569071297</v>
+        <v>6975.302779145473</v>
       </c>
       <c r="R4">
-        <v>3523.34569071297</v>
+        <v>62777.72501230927</v>
       </c>
       <c r="S4">
-        <v>0.005293914658878886</v>
+        <v>0.006221911211562522</v>
       </c>
       <c r="T4">
-        <v>0.005293914658878886</v>
+        <v>0.006221911211562522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>1435.818279203271</v>
+        <v>2351.302286920344</v>
       </c>
       <c r="R5">
-        <v>1435.818279203271</v>
+        <v>21161.7205822831</v>
       </c>
       <c r="S5">
-        <v>0.002157352727493034</v>
+        <v>0.002097341796330528</v>
       </c>
       <c r="T5">
-        <v>0.002157352727493034</v>
+        <v>0.002097341796330528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>86443.54391816043</v>
+        <v>403881.9302865169</v>
       </c>
       <c r="R6">
-        <v>86443.54391816043</v>
+        <v>3634937.372578652</v>
       </c>
       <c r="S6">
-        <v>0.129883577850457</v>
+        <v>0.3602592732906489</v>
       </c>
       <c r="T6">
-        <v>0.129883577850457</v>
+        <v>0.3602592732906489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>197462.8132240055</v>
+        <v>197733.4581796564</v>
       </c>
       <c r="R7">
-        <v>197462.8132240055</v>
+        <v>1779601.123616907</v>
       </c>
       <c r="S7">
-        <v>0.2966927952217182</v>
+        <v>0.1763765759426649</v>
       </c>
       <c r="T7">
-        <v>0.2966927952217182</v>
+        <v>0.1763765759426649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>233414.2568703103</v>
+        <v>289136.7812605778</v>
       </c>
       <c r="R8">
-        <v>233414.2568703103</v>
+        <v>2602231.031345201</v>
       </c>
       <c r="S8">
-        <v>0.3507107347695455</v>
+        <v>0.2579075687407907</v>
       </c>
       <c r="T8">
-        <v>0.3507107347695455</v>
+        <v>0.2579075687407907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>95119.94736265049</v>
+        <v>97465.01285125151</v>
       </c>
       <c r="R9">
-        <v>95119.94736265049</v>
+        <v>877185.1156612636</v>
       </c>
       <c r="S9">
-        <v>0.142920090135415</v>
+        <v>0.08693796891617914</v>
       </c>
       <c r="T9">
-        <v>0.142920090135415</v>
+        <v>0.08693796891617914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>1863.88561930787</v>
+        <v>24139.20541947044</v>
       </c>
       <c r="R10">
-        <v>1863.88561930787</v>
+        <v>217252.848775234</v>
       </c>
       <c r="S10">
-        <v>0.002800534568190721</v>
+        <v>0.02153196751353259</v>
       </c>
       <c r="T10">
-        <v>0.002800534568190721</v>
+        <v>0.02153196751353259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>4257.670165220732</v>
+        <v>11818.1285355225</v>
       </c>
       <c r="R11">
-        <v>4257.670165220732</v>
+        <v>106363.1568197025</v>
       </c>
       <c r="S11">
-        <v>0.006397255472190772</v>
+        <v>0.01054167091566203</v>
       </c>
       <c r="T11">
-        <v>0.006397255472190772</v>
+        <v>0.01054167091566203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>5032.85100312281</v>
+        <v>17281.1201338526</v>
       </c>
       <c r="R12">
-        <v>5032.85100312281</v>
+        <v>155530.0812046734</v>
       </c>
       <c r="S12">
-        <v>0.007561983989142344</v>
+        <v>0.01541461331695031</v>
       </c>
       <c r="T12">
-        <v>0.007561983989142344</v>
+        <v>0.01541461331695031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>2050.965219177222</v>
+        <v>5825.286525590892</v>
       </c>
       <c r="R13">
-        <v>2050.965219177222</v>
+        <v>52427.57873031803</v>
       </c>
       <c r="S13">
-        <v>0.003081626326724682</v>
+        <v>0.005196106418849717</v>
       </c>
       <c r="T13">
-        <v>0.003081626326724682</v>
+        <v>0.005196106418849717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>4326.938198083188</v>
+        <v>20420.81550384677</v>
       </c>
       <c r="R14">
-        <v>4326.938198083188</v>
+        <v>183787.3395346209</v>
       </c>
       <c r="S14">
-        <v>0.006501332416876848</v>
+        <v>0.01821519508981076</v>
       </c>
       <c r="T14">
-        <v>0.006501332416876848</v>
+        <v>0.01821519508981076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>9884.016208877543</v>
+        <v>9997.670521084865</v>
       </c>
       <c r="R15">
-        <v>9884.016208877543</v>
+        <v>89979.03468976379</v>
       </c>
       <c r="S15">
-        <v>0.01485098054235633</v>
+        <v>0.00891783773037399</v>
       </c>
       <c r="T15">
-        <v>0.01485098054235633</v>
+        <v>0.00891783773037399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>11683.56846852004</v>
+        <v>14619.14590065895</v>
       </c>
       <c r="R16">
-        <v>11683.56846852004</v>
+        <v>131572.3131059306</v>
       </c>
       <c r="S16">
-        <v>0.01755485263525116</v>
+        <v>0.01304015476643171</v>
       </c>
       <c r="T16">
-        <v>0.01755485263525116</v>
+        <v>0.01304015476643171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>4761.236235672754</v>
+        <v>4927.962595661353</v>
       </c>
       <c r="R17">
-        <v>4761.236235672754</v>
+        <v>44351.66336095217</v>
       </c>
       <c r="S17">
-        <v>0.007153876035738299</v>
+        <v>0.004395701046236499</v>
       </c>
       <c r="T17">
-        <v>0.007153876035738299</v>
+        <v>0.004395701046236499</v>
       </c>
     </row>
   </sheetData>
